--- a/My_Airbnb_Data_Dictionary.xlsx
+++ b/My_Airbnb_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Edu\SelfPresentation_Multimodal_airbnb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD43B840-8C3E-4840-8700-3C67C0EA6D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D173C0B-1F93-47F7-87B1-6C4A940BF550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="0" windowWidth="13056" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3588" yWindow="0" windowWidth="17280" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listings.csv detail v4.3" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="286">
   <si>
     <t>Data Dictionary for listings.csv detailed file</t>
   </si>
@@ -881,10 +881,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>黄色：Airbnb上房东相关变量；蓝色：房东分组变量（不登记中间变量）；绿色：房源客观变量，红色：绩效指标</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>status</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -926,39 +922,6 @@
   </si>
   <si>
     <t>host_picture_url_change</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Entire home/apt|Private room|Shared room|Hotel]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-All homes are grouped into the following three room types:
-Entire place
-Private room
-Shared room
-Entire place
-Entire places are best if you're seeking a home away from home. With an entire place, you'll have the whole space to yourself. This usually includes a bedroom, a bathroom, a kitchen, and a separate, dedicated entrance. Hosts should note in the description if they'll be on the property or not (ex: "Host occupies first floor of the home"), and provide further details on the listing.
-Private rooms
-Private rooms are great for when you prefer a little privacy, and still value a local connection. When you book a private room, you'll have your own private room for sleeping and may share some spaces with others. You might need to walk through indoor spaces that another host or guest may occupy to get to your room.
-Shared rooms
-Shared rooms are for when you don't mind sharing a space with others. When you book a shared room, you'll be sleeping in a space that is shared with others and share the entire space with other people. Shared rooms are popular among flexible travelers looking for new friends and budget-friendly stays.</t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1008,6 +971,56 @@
     <t>Rounded years of 'host_since', until 'scrape_date' if it exists, if not take 'today'; if years between 0.5-1, take 1; under 0.5, take 0.</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>黄色：Airbnb上房东相关变量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色：房东分组变量（不登记中间变量）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色：房源客观变量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色：绩效指标</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紫色：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>identifiant</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东自我展示变量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东个人照片变量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1016,7 +1029,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mmmm\,\ yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1157,6 +1170,46 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Noto Sans SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1238,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1284,10 +1337,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1329,14 +1378,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1344,14 +1386,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1373,16 +1411,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1393,6 +1422,29 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1613,14 +1665,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="122" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <pane ySplit="9" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
@@ -1628,17 +1680,17 @@
     <col min="5" max="5" width="38.21875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>231</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.2">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1698,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1706,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1662,523 +1714,533 @@
         <v>45980</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:7" ht="13.2">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>280</v>
+      </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.2">
-      <c r="A8" s="6" t="s">
+      <c r="F7" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="70" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="71"/>
+      <c r="B8" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="67"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G9" s="19" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.2">
-      <c r="A10" s="7" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.2">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.4">
-      <c r="A12" s="7" t="s">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="92.4">
-      <c r="A13" s="7" t="s">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.2">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:7" ht="13.2">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="26.4">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" s="64" customFormat="1" ht="13.2">
-      <c r="A18" s="63" t="s">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" s="54" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="65" t="s">
+      <c r="B19" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="64" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="54" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="40" customFormat="1" ht="13.2">
-      <c r="A19" s="59" t="s">
+    <row r="20" spans="1:7" s="36" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="E20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" s="36" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" s="45" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:7" s="32" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" s="22" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="60" t="s">
-        <v>265</v>
-      </c>
-      <c r="E19" s="61"/>
-    </row>
-    <row r="20" spans="1:7" s="40" customFormat="1" ht="26.4">
-      <c r="A20" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" s="59" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="32" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="61"/>
-    </row>
-    <row r="21" spans="1:7" s="40" customFormat="1" ht="26.4">
-      <c r="A21" s="59" t="s">
-        <v>274</v>
-      </c>
-      <c r="B21" s="59" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="1:7" s="40" customFormat="1" ht="26.4">
-      <c r="A22" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>242</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="1:7" s="52" customFormat="1" ht="26.4">
-      <c r="A23" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="13.2">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="26.4">
-      <c r="A25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" s="41" customFormat="1" ht="39.6">
-      <c r="A26" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="34" customFormat="1" ht="15.6">
-      <c r="A27" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.4">
-      <c r="A28" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" ht="13.2">
-      <c r="A29" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="25" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" s="22" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="23" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A30" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A31" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A32" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="34" customFormat="1" ht="13.8">
-      <c r="A33" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A34" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A35" s="36" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="35" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="26.4">
-      <c r="A36" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" s="24" customFormat="1" ht="13.2">
-      <c r="A37" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="25" t="s">
+      <c r="G38" s="23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" s="22" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="13.2">
-      <c r="A38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" s="24" customFormat="1" ht="13.2">
-      <c r="A39" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="13.2">
-      <c r="A40" s="7" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:7" ht="26.4">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" ht="26.4">
-      <c r="A42" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>14</v>
@@ -2189,99 +2251,99 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:7" ht="13.2">
+    <row r="43" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B44" s="24" t="s">
         <v>245</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.2">
-      <c r="A44" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A45" s="32" t="s">
+    <row r="45" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B46" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="35" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="13.2">
-      <c r="A46" s="7" t="s">
+    <row r="47" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" ht="52.8">
-      <c r="A47" s="7" t="s">
+      <c r="B47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="B48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:7" ht="52.8">
-      <c r="A48" s="7" t="s">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="8" t="s">
+      <c r="B49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:7" ht="26.4">
-      <c r="A49" s="26" t="s">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
         <v>254</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:7" ht="26.4">
-      <c r="A50" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>66</v>
@@ -2292,257 +2354,255 @@
       </c>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:7" s="56" customFormat="1" ht="13.2">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" s="49" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B52" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="C51" s="53" t="s">
+      <c r="C52" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D51" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="E51" s="55"/>
-      <c r="F51" s="57" t="s">
+      <c r="D52" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="39.6">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8" t="s">
+      <c r="B53" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" s="56" customFormat="1" ht="409.6">
-      <c r="A53" s="54" t="s">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" s="49" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B53" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="E53" s="62" t="s">
+      <c r="B54" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="E54" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="F54" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="13.2">
-      <c r="A54" s="7" t="s">
+    <row r="55" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" ht="13.2">
-      <c r="A55" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="B55" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:7" ht="66">
+    <row r="56" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:7" ht="13.2">
+    <row r="57" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:7" ht="13.2">
+    <row r="58" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:7" ht="13.2">
-      <c r="A59" s="7" t="s">
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:7" s="30" customFormat="1" ht="39.6">
-      <c r="A60" s="31" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" s="28" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B61" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E60" s="29"/>
-      <c r="F60" s="47" t="s">
+      <c r="E61" s="27"/>
+      <c r="F61" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="G60" s="47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="56" customFormat="1" ht="26.4">
-      <c r="A61" s="54" t="s">
+      <c r="G61" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="49" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B61" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55" t="s">
+      <c r="B62" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="55"/>
-      <c r="F61" s="57" t="s">
+      <c r="E62" s="48"/>
+      <c r="F62" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="26.4">
-      <c r="A62" s="7" t="s">
+    <row r="63" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8" t="s">
+      <c r="B63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:7" ht="26.4">
-      <c r="A63" s="7" t="s">
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="B64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:7" ht="26.4">
-      <c r="A64" s="7" t="s">
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="8" t="s">
+      <c r="B65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" ht="26.4">
-      <c r="A65" s="7" t="s">
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="B66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" ht="26.4">
-      <c r="A66" s="7" t="s">
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="8" t="s">
+      <c r="B67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" ht="26.4">
-      <c r="A67" s="7" t="s">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="26.4">
-      <c r="A68" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>66</v>
@@ -2551,52 +2611,52 @@
         <v>15</v>
       </c>
       <c r="D68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="13.2">
-      <c r="A69" s="7" t="s">
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.2">
-      <c r="A70" s="7" t="s">
+      <c r="C70" s="7"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8" t="s">
+      <c r="C71" s="7"/>
+      <c r="D71" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="66">
-      <c r="A71" s="7" t="s">
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="66">
-      <c r="A72" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>11</v>
@@ -2609,114 +2669,114 @@
       </c>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:6" s="30" customFormat="1" ht="66">
-      <c r="A73" s="28" t="s">
+    <row r="73" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B73" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="29" t="s">
+      <c r="B74" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="47" t="s">
+      <c r="E74" s="27"/>
+      <c r="F74" s="41" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="66">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="8" t="s">
+      <c r="B75" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.2">
-      <c r="A75" s="7" t="s">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" s="34" customFormat="1" ht="13.2">
-      <c r="A76" s="32" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:6" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B76" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="33" t="s">
+      <c r="B77" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="33"/>
-      <c r="F76" s="35" t="s">
+      <c r="E77" s="31"/>
+      <c r="F77" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="26.4">
-      <c r="A77" s="7" t="s">
+    <row r="78" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="8" t="s">
+      <c r="B78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" ht="26.4">
-      <c r="A78" s="7" t="s">
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="8" t="s">
+      <c r="B79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:6" ht="13.2">
-      <c r="A79" s="7" t="s">
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="13.2">
-      <c r="A80" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>39</v>
@@ -2725,240 +2785,255 @@
         <v>15</v>
       </c>
       <c r="D80" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A81" s="32" t="s">
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B82" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="35" t="s">
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="G81" s="35" t="s">
+      <c r="G82" s="33" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="34" customFormat="1" ht="13.2">
-      <c r="A82" s="36" t="s">
+    <row r="83" spans="1:7" s="32" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B83" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="35" t="s">
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="33" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="13.2">
-      <c r="A83" s="7" t="s">
+    <row r="84" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" ht="13.2">
-      <c r="A84" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="1:7" ht="13.2">
+    <row r="85" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="1:7" ht="13.2">
+    <row r="86" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="1:7" ht="13.2">
+    <row r="87" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="1:7" ht="13.2">
+    <row r="88" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:7" ht="13.2">
+    <row r="89" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="8" t="s">
+      <c r="B90" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" s="56" customFormat="1" ht="52.8">
-      <c r="A90" s="54" t="s">
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" s="49" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B91" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55" t="s">
+      <c r="C91" s="47"/>
+      <c r="D91" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E90" s="55"/>
-      <c r="F90" s="57" t="s">
+      <c r="E91" s="48"/>
+      <c r="F91" s="50" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="26.4">
-      <c r="A91" s="7" t="s">
+    <row r="92" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="43" t="s">
+      <c r="B92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" s="34" customFormat="1" ht="26.4">
-      <c r="A92" s="36" t="s">
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" s="32" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="B92" s="36" t="s">
+      <c r="B93" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C93" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D93" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="E92" s="33"/>
-      <c r="F92" s="36" t="s">
+      <c r="E93" s="31"/>
+      <c r="F93" s="34" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="39.6">
-      <c r="A93" s="7" t="s">
+    <row r="94" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="B94" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" ht="39.6">
-      <c r="A94" s="7" t="s">
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="8" t="s">
+      <c r="B95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" ht="39.6">
-      <c r="A95" s="7" t="s">
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="8" t="s">
+      <c r="B96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" ht="145.19999999999999">
-      <c r="A96" s="7" t="s">
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B97" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="8" t="s">
+      <c r="C97" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="98" spans="1:2" ht="15.6">
-      <c r="A98" s="10" t="s">
+      <c r="E97" s="8"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="13.2">
-      <c r="A99" s="11" t="s">
+    <row r="100" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="13.2">
-      <c r="A100" s="12" t="s">
+    <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="13.2">
-      <c r="A101" s="7"/>
+    <row r="102" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2966,7 +3041,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E53" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E54" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2984,23 +3059,23 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="4" max="5" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +3083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,7 +3091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3024,23 +3099,23 @@
         <v>44044</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -3057,7 +3132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3145,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -3083,7 +3158,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -3098,7 +3173,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="26.4">
+    <row r="12" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -3113,7 +3188,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -3126,7 +3201,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="13.2">
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -3139,7 +3214,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="13.2">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>28</v>
       </c>
@@ -3152,7 +3227,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="26.4">
+    <row r="16" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
@@ -3165,7 +3240,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="13.2">
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>32</v>
       </c>
@@ -3178,7 +3253,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="13.2">
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
@@ -3193,7 +3268,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="26.4">
+    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>36</v>
       </c>
@@ -3206,7 +3281,7 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="39.6">
+    <row r="20" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -3219,7 +3294,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2">
+    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
@@ -3232,7 +3307,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2">
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
@@ -3245,7 +3320,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="13.2">
+    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
@@ -3254,7 +3329,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="13.2">
+    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
@@ -3263,7 +3338,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="26.4">
+    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
@@ -3274,7 +3349,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="13.2">
+    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -3285,7 +3360,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="13.2">
+    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
@@ -3296,7 +3371,7 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="13.2">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
@@ -3307,7 +3382,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="13.2">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>53</v>
       </c>
@@ -3318,7 +3393,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="26.4">
+    <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>54</v>
       </c>
@@ -3331,7 +3406,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="26.4">
+    <row r="31" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
@@ -3344,7 +3419,7 @@
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="13.2">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -3353,7 +3428,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>58</v>
       </c>
@@ -3364,7 +3439,7 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="13.2">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
@@ -3375,7 +3450,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="13.2">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
@@ -3386,7 +3461,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="52.8">
+    <row r="36" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>61</v>
       </c>
@@ -3401,7 +3476,7 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="52.8">
+    <row r="37" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>63</v>
       </c>
@@ -3416,7 +3491,7 @@
       </c>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="26.4">
+    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>65</v>
       </c>
@@ -3429,7 +3504,7 @@
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="26.4">
+    <row r="39" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>68</v>
       </c>
@@ -3442,7 +3517,7 @@
       </c>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="39.6">
+    <row r="40" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>69</v>
       </c>
@@ -3455,7 +3530,7 @@
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="409.6">
+    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>71</v>
       </c>
@@ -3470,7 +3545,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="13.2">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>74</v>
       </c>
@@ -3483,7 +3558,7 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="13.2">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>76</v>
       </c>
@@ -3496,7 +3571,7 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="66">
+    <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>78</v>
       </c>
@@ -3509,7 +3584,7 @@
       </c>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" ht="13.2">
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>81</v>
       </c>
@@ -3522,7 +3597,7 @@
       </c>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="13.2">
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>83</v>
       </c>
@@ -3535,7 +3610,7 @@
       </c>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="13.2">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>85</v>
       </c>
@@ -3546,7 +3621,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="13.2">
+    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>87</v>
       </c>
@@ -3559,7 +3634,7 @@
       </c>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="26.4">
+    <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>90</v>
       </c>
@@ -3572,7 +3647,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="26.4">
+    <row r="50" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>92</v>
       </c>
@@ -3585,7 +3660,7 @@
       </c>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:5" ht="26.4">
+    <row r="51" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>94</v>
       </c>
@@ -3600,7 +3675,7 @@
       </c>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" ht="26.4">
+    <row r="52" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>96</v>
       </c>
@@ -3615,7 +3690,7 @@
       </c>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="26.4">
+    <row r="53" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>98</v>
       </c>
@@ -3630,7 +3705,7 @@
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" ht="26.4">
+    <row r="54" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>100</v>
       </c>
@@ -3645,7 +3720,7 @@
       </c>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" ht="26.4">
+    <row r="55" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>102</v>
       </c>
@@ -3660,7 +3735,7 @@
       </c>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="26.4">
+    <row r="56" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>104</v>
       </c>
@@ -3675,7 +3750,7 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="13.2">
+    <row r="57" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>106</v>
       </c>
@@ -3686,7 +3761,7 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="13.2">
+    <row r="58" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>107</v>
       </c>
@@ -3699,7 +3774,7 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" ht="66">
+    <row r="59" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>110</v>
       </c>
@@ -3714,7 +3789,7 @@
       </c>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" spans="1:5" ht="66">
+    <row r="60" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>112</v>
       </c>
@@ -3729,7 +3804,7 @@
       </c>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" ht="66">
+    <row r="61" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>113</v>
       </c>
@@ -3744,7 +3819,7 @@
       </c>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" spans="1:5" ht="66">
+    <row r="62" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>114</v>
       </c>
@@ -3759,7 +3834,7 @@
       </c>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:5" ht="13.2">
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>115</v>
       </c>
@@ -3770,7 +3845,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" ht="13.2">
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>116</v>
       </c>
@@ -3783,7 +3858,7 @@
       </c>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" ht="26.4">
+    <row r="65" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>118</v>
       </c>
@@ -3798,7 +3873,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" ht="26.4">
+    <row r="66" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>120</v>
       </c>
@@ -3813,7 +3888,7 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="13.2">
+    <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>122</v>
       </c>
@@ -3828,7 +3903,7 @@
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" ht="13.2">
+    <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>124</v>
       </c>
@@ -3843,7 +3918,7 @@
       </c>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="1:5" ht="13.2">
+    <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>126</v>
       </c>
@@ -3852,7 +3927,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" ht="13.2">
+    <row r="70" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>127</v>
       </c>
@@ -3861,7 +3936,7 @@
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:5" ht="13.2">
+    <row r="71" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>128</v>
       </c>
@@ -3870,7 +3945,7 @@
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" ht="13.2">
+    <row r="72" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>129</v>
       </c>
@@ -3879,7 +3954,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:5" ht="13.2">
+    <row r="73" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>130</v>
       </c>
@@ -3888,7 +3963,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="13.2">
+    <row r="74" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>131</v>
       </c>
@@ -3897,7 +3972,7 @@
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" ht="13.2">
+    <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>132</v>
       </c>
@@ -3906,7 +3981,7 @@
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" ht="13.2">
+    <row r="76" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>133</v>
       </c>
@@ -3919,7 +3994,7 @@
       </c>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:5" ht="52.8">
+    <row r="77" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>135</v>
       </c>
@@ -3932,7 +4007,7 @@
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="26.4">
+    <row r="78" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>137</v>
       </c>
@@ -3947,7 +4022,7 @@
       </c>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:5" ht="39.6">
+    <row r="79" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>139</v>
       </c>
@@ -3962,7 +4037,7 @@
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" ht="39.6">
+    <row r="80" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>141</v>
       </c>
@@ -3977,7 +4052,7 @@
       </c>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" ht="39.6">
+    <row r="81" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>143</v>
       </c>
@@ -3992,7 +4067,7 @@
       </c>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" ht="26.4">
+    <row r="82" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>145</v>
       </c>
@@ -4007,12 +4082,12 @@
       </c>
       <c r="E82" s="8"/>
     </row>
-    <row r="84" spans="1:5" ht="15.6">
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13.2">
+    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>6</v>
       </c>
@@ -4020,7 +4095,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13.2">
+    <row r="86" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>153</v>
       </c>
@@ -4028,7 +4103,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13.2">
+    <row r="87" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>155</v>
       </c>
@@ -4036,7 +4111,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="13.2">
+    <row r="88" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>156</v>
       </c>
@@ -4044,7 +4119,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="13.2">
+    <row r="89" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>157</v>
       </c>
@@ -4052,7 +4127,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="13.2">
+    <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>158</v>
       </c>
@@ -4060,7 +4135,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="13.2">
+    <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>159</v>
       </c>
@@ -4068,7 +4143,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="13.2">
+    <row r="92" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>160</v>
       </c>
@@ -4076,7 +4151,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="13.2">
+    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>161</v>
       </c>
@@ -4084,7 +4159,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="13.2">
+    <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>162</v>
       </c>
@@ -4092,7 +4167,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="13.2">
+    <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>163</v>
       </c>
@@ -4100,7 +4175,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="13.2">
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>164</v>
       </c>
@@ -4108,7 +4183,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="13.2">
+    <row r="97" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>165</v>
       </c>
@@ -4116,7 +4191,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="13.2">
+    <row r="98" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>166</v>
       </c>
@@ -4124,7 +4199,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="13.2">
+    <row r="99" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>167</v>
       </c>
@@ -4132,7 +4207,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="13.2">
+    <row r="100" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>168</v>
       </c>
@@ -4140,7 +4215,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="13.2">
+    <row r="101" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>169</v>
       </c>
@@ -4148,7 +4223,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="13.2">
+    <row r="102" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>170</v>
       </c>
@@ -4156,7 +4231,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="13.2">
+    <row r="103" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>171</v>
       </c>
@@ -4164,7 +4239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="13.2">
+    <row r="104" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>172</v>
       </c>
@@ -4172,7 +4247,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="13.2">
+    <row r="105" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>173</v>
       </c>
@@ -4180,7 +4255,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="13.2">
+    <row r="106" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>174</v>
       </c>
@@ -4188,7 +4263,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="13.2">
+    <row r="107" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>175</v>
       </c>
@@ -4196,7 +4271,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="13.2">
+    <row r="108" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>176</v>
       </c>
@@ -4204,7 +4279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="13.2">
+    <row r="109" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>177</v>
       </c>
@@ -4212,7 +4287,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="13.2">
+    <row r="110" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>178</v>
       </c>
@@ -4220,7 +4295,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="13.2">
+    <row r="111" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>179</v>
       </c>
@@ -4228,7 +4303,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="13.2">
+    <row r="112" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>180</v>
       </c>
@@ -4236,7 +4311,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="13.2">
+    <row r="113" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>181</v>
       </c>
@@ -4244,7 +4319,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="13.2">
+    <row r="114" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>182</v>
       </c>
@@ -4252,7 +4327,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="13.2">
+    <row r="115" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>183</v>
       </c>
@@ -4260,7 +4335,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="13.2">
+    <row r="116" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>184</v>
       </c>
@@ -4268,7 +4343,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="13.2">
+    <row r="117" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>185</v>
       </c>
@@ -4276,7 +4351,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="13.2">
+    <row r="118" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>186</v>
       </c>
@@ -4284,7 +4359,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="13.2">
+    <row r="119" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>187</v>
       </c>
@@ -4292,7 +4367,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="13.2">
+    <row r="120" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>78</v>
       </c>
@@ -4300,7 +4375,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="13.2">
+    <row r="121" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>120</v>
       </c>
@@ -4308,31 +4383,31 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="13.2">
+    <row r="122" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
     </row>
-    <row r="123" spans="1:2" ht="13.2">
+    <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
     </row>
-    <row r="124" spans="1:2" ht="13.2">
+    <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:2" ht="13.2">
+    <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
     </row>
-    <row r="126" spans="1:2" ht="13.2">
+    <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
     </row>
-    <row r="127" spans="1:2" ht="13.2">
+    <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
     </row>
-    <row r="128" spans="1:2" ht="13.2">
+    <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
     </row>
-    <row r="129" spans="1:1" ht="13.2">
+    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
     </row>
-    <row r="130" spans="1:1" ht="13.2">
+    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
     </row>
   </sheetData>
@@ -4356,23 +4431,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="4" max="5" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -4380,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -4388,7 +4463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -4396,23 +4471,23 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -4442,7 +4517,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
@@ -4455,7 +4530,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -4470,7 +4545,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="26.4">
+    <row r="12" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -4485,7 +4560,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -4498,7 +4573,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" ht="13.2">
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>153</v>
       </c>
@@ -4511,7 +4586,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="13.2">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>155</v>
       </c>
@@ -4524,7 +4599,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" ht="13.2">
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>26</v>
       </c>
@@ -4537,7 +4612,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" ht="13.2">
+    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>156</v>
       </c>
@@ -4550,7 +4625,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="13.2">
+    <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
@@ -4563,7 +4638,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" ht="39.6">
+    <row r="19" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>157</v>
       </c>
@@ -4576,7 +4651,7 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="13.2">
+    <row r="20" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>158</v>
       </c>
@@ -4589,7 +4664,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2">
+    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>159</v>
       </c>
@@ -4602,7 +4677,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2">
+    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>160</v>
       </c>
@@ -4613,7 +4688,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="13.2">
+    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>161</v>
       </c>
@@ -4624,7 +4699,7 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" ht="26.4">
+    <row r="24" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>162</v>
       </c>
@@ -4637,7 +4712,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="26.4">
+    <row r="25" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>163</v>
       </c>
@@ -4650,7 +4725,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="26.4">
+    <row r="26" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -4663,7 +4738,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="26.4">
+    <row r="27" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>164</v>
       </c>
@@ -4676,7 +4751,7 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" ht="13.2">
+    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -4689,7 +4764,7 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" ht="13.2">
+    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
@@ -4704,7 +4779,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="26.4">
+    <row r="30" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
@@ -4717,7 +4792,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="39.6">
+    <row r="31" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>38</v>
       </c>
@@ -4730,7 +4805,7 @@
       </c>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" ht="13.2">
+    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>41</v>
       </c>
@@ -4743,7 +4818,7 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>43</v>
       </c>
@@ -4756,7 +4831,7 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" ht="13.2">
+    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
@@ -4765,7 +4840,7 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" ht="13.2">
+    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
@@ -4774,7 +4849,7 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="26.4">
+    <row r="36" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4860,7 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" ht="13.2">
+    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -4796,7 +4871,7 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" ht="13.2">
+    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>51</v>
       </c>
@@ -4807,7 +4882,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" ht="13.2">
+    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>52</v>
       </c>
@@ -4818,7 +4893,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="13.2">
+    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>53</v>
       </c>
@@ -4829,7 +4904,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" ht="13.2">
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>54</v>
       </c>
@@ -4842,7 +4917,7 @@
       </c>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" ht="13.2">
+    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>56</v>
       </c>
@@ -4855,7 +4930,7 @@
       </c>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" ht="13.2">
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>57</v>
       </c>
@@ -4864,7 +4939,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5" ht="13.2">
+    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
@@ -4875,7 +4950,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" ht="13.2">
+    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>59</v>
       </c>
@@ -4886,7 +4961,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" spans="1:5" ht="13.2">
+    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>165</v>
       </c>
@@ -4897,7 +4972,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" ht="13.2">
+    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -4908,7 +4983,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5" ht="52.8">
+    <row r="48" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>61</v>
       </c>
@@ -4923,7 +4998,7 @@
       </c>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" spans="1:5" ht="52.8">
+    <row r="49" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>63</v>
       </c>
@@ -4938,7 +5013,7 @@
       </c>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" spans="1:5" ht="13.2">
+    <row r="50" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>166</v>
       </c>
@@ -4949,7 +5024,7 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" spans="1:5" ht="13.2">
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>167</v>
       </c>
@@ -4960,7 +5035,7 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" spans="1:5" ht="13.2">
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>168</v>
       </c>
@@ -4971,7 +5046,7 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" spans="1:5" ht="13.2">
+    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>169</v>
       </c>
@@ -4982,7 +5057,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" ht="13.2">
+    <row r="54" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>170</v>
       </c>
@@ -4993,7 +5068,7 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" spans="1:5" ht="13.2">
+    <row r="55" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>171</v>
       </c>
@@ -5004,7 +5079,7 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" spans="1:5" ht="13.2">
+    <row r="56" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>172</v>
       </c>
@@ -5015,7 +5090,7 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" spans="1:5" ht="26.4">
+    <row r="57" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>65</v>
       </c>
@@ -5028,7 +5103,7 @@
       </c>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" spans="1:5" ht="26.4">
+    <row r="58" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>68</v>
       </c>
@@ -5041,7 +5116,7 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" spans="1:5" ht="13.2">
+    <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>173</v>
       </c>
@@ -5056,7 +5131,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="39.6">
+    <row r="60" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>69</v>
       </c>
@@ -5069,7 +5144,7 @@
       </c>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" spans="1:5" ht="409.6">
+    <row r="61" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>71</v>
       </c>
@@ -5084,7 +5159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="13.2">
+    <row r="62" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>74</v>
       </c>
@@ -5097,7 +5172,7 @@
       </c>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" spans="1:5" ht="13.2">
+    <row r="63" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>76</v>
       </c>
@@ -5110,7 +5185,7 @@
       </c>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" spans="1:5" ht="13.2">
+    <row r="64" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>81</v>
       </c>
@@ -5123,7 +5198,7 @@
       </c>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" ht="13.2">
+    <row r="65" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>83</v>
       </c>
@@ -5136,7 +5211,7 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" spans="1:5" ht="13.2">
+    <row r="66" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>174</v>
       </c>
@@ -5149,7 +5224,7 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" spans="1:5" ht="13.2">
+    <row r="67" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>85</v>
       </c>
@@ -5160,7 +5235,7 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" spans="1:5" ht="13.2">
+    <row r="68" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>175</v>
       </c>
@@ -5171,7 +5246,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" spans="1:5" ht="13.2">
+    <row r="69" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>87</v>
       </c>
@@ -5184,7 +5259,7 @@
       </c>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" spans="1:5" ht="13.2">
+    <row r="70" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>176</v>
       </c>
@@ -5197,7 +5272,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="1:5" ht="13.2">
+    <row r="71" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>177</v>
       </c>
@@ -5210,7 +5285,7 @@
       </c>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" spans="1:5" ht="13.2">
+    <row r="72" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>178</v>
       </c>
@@ -5221,7 +5296,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" spans="1:5" ht="13.2">
+    <row r="73" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>179</v>
       </c>
@@ -5232,7 +5307,7 @@
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5" ht="13.2">
+    <row r="74" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>180</v>
       </c>
@@ -5245,7 +5320,7 @@
       </c>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" spans="1:5" ht="13.2">
+    <row r="75" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>181</v>
       </c>
@@ -5258,7 +5333,7 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" spans="1:5" ht="26.4">
+    <row r="76" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>90</v>
       </c>
@@ -5271,7 +5346,7 @@
       </c>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:5" ht="26.4">
+    <row r="77" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>92</v>
       </c>
@@ -5284,7 +5359,7 @@
       </c>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:5" ht="26.4">
+    <row r="78" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>94</v>
       </c>
@@ -5299,7 +5374,7 @@
       </c>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:5" ht="26.4">
+    <row r="79" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>96</v>
       </c>
@@ -5314,7 +5389,7 @@
       </c>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:5" ht="26.4">
+    <row r="80" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>98</v>
       </c>
@@ -5329,7 +5404,7 @@
       </c>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" spans="1:5" ht="26.4">
+    <row r="81" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>100</v>
       </c>
@@ -5344,7 +5419,7 @@
       </c>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" spans="1:5" ht="26.4">
+    <row r="82" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>102</v>
       </c>
@@ -5357,7 +5432,7 @@
       </c>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" spans="1:5" ht="26.4">
+    <row r="83" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>104</v>
       </c>
@@ -5370,7 +5445,7 @@
       </c>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" spans="1:5" ht="13.2">
+    <row r="84" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>106</v>
       </c>
@@ -5381,7 +5456,7 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" spans="1:5" ht="13.2">
+    <row r="85" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>107</v>
       </c>
@@ -5394,7 +5469,7 @@
       </c>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="1:5" ht="66">
+    <row r="86" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>110</v>
       </c>
@@ -5409,7 +5484,7 @@
       </c>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" spans="1:5" ht="66">
+    <row r="87" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>112</v>
       </c>
@@ -5424,7 +5499,7 @@
       </c>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="1:5" ht="66">
+    <row r="88" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>113</v>
       </c>
@@ -5439,7 +5514,7 @@
       </c>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="66">
+    <row r="89" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>114</v>
       </c>
@@ -5454,7 +5529,7 @@
       </c>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="1:5" ht="13.2">
+    <row r="90" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>115</v>
       </c>
@@ -5465,7 +5540,7 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="1:5" ht="13.2">
+    <row r="91" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>116</v>
       </c>
@@ -5478,7 +5553,7 @@
       </c>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" spans="1:5" ht="26.4">
+    <row r="92" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>118</v>
       </c>
@@ -5493,7 +5568,7 @@
       </c>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="13.2">
+    <row r="93" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>122</v>
       </c>
@@ -5508,7 +5583,7 @@
       </c>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="1:5" ht="13.2">
+    <row r="94" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>124</v>
       </c>
@@ -5523,7 +5598,7 @@
       </c>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:5" ht="13.2">
+    <row r="95" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>126</v>
       </c>
@@ -5532,7 +5607,7 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="1:5" ht="13.2">
+    <row r="96" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>127</v>
       </c>
@@ -5541,7 +5616,7 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="13.2">
+    <row r="97" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>128</v>
       </c>
@@ -5550,7 +5625,7 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="1:5" ht="13.2">
+    <row r="98" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>129</v>
       </c>
@@ -5559,7 +5634,7 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" ht="13.2">
+    <row r="99" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>130</v>
       </c>
@@ -5568,7 +5643,7 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" ht="13.2">
+    <row r="100" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>131</v>
       </c>
@@ -5577,7 +5652,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" ht="13.2">
+    <row r="101" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>132</v>
       </c>
@@ -5586,7 +5661,7 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="1:5" ht="26.4">
+    <row r="102" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>182</v>
       </c>
@@ -5599,7 +5674,7 @@
       </c>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="13.2">
+    <row r="103" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>133</v>
       </c>
@@ -5612,7 +5687,7 @@
       </c>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="1:5" ht="13.2">
+    <row r="104" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>183</v>
       </c>
@@ -5625,7 +5700,7 @@
       </c>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" spans="1:5" ht="52.8">
+    <row r="105" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>135</v>
       </c>
@@ -5638,7 +5713,7 @@
       </c>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" spans="1:5" ht="13.2">
+    <row r="106" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>184</v>
       </c>
@@ -5651,7 +5726,7 @@
       </c>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" spans="1:5" ht="13.2">
+    <row r="107" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>185</v>
       </c>
@@ -5660,7 +5735,7 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" spans="1:5" ht="13.2">
+    <row r="108" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>186</v>
       </c>
@@ -5673,7 +5748,7 @@
       </c>
       <c r="E108" s="14"/>
     </row>
-    <row r="109" spans="1:5" ht="13.2">
+    <row r="109" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>187</v>
       </c>
@@ -5686,7 +5761,7 @@
       </c>
       <c r="E109" s="14"/>
     </row>
-    <row r="110" spans="1:5" ht="26.4">
+    <row r="110" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>137</v>
       </c>
@@ -5701,7 +5776,7 @@
       </c>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" spans="1:5" ht="39.6">
+    <row r="111" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>139</v>
       </c>
@@ -5716,7 +5791,7 @@
       </c>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="1:5" ht="39.6">
+    <row r="112" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>141</v>
       </c>
@@ -5731,7 +5806,7 @@
       </c>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:5" ht="39.6">
+    <row r="113" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>143</v>
       </c>
@@ -5746,7 +5821,7 @@
       </c>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" spans="1:5" ht="26.4">
+    <row r="114" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>145</v>
       </c>
@@ -5761,12 +5836,12 @@
       </c>
       <c r="E114" s="8"/>
     </row>
-    <row r="116" spans="1:5" ht="15.6">
+    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="13.2">
+    <row r="117" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>6</v>
       </c>
@@ -5774,7 +5849,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="13.2">
+    <row r="118" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>94</v>
       </c>
@@ -5782,7 +5857,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="13.2">
+    <row r="119" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -5790,7 +5865,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="13.2">
+    <row r="120" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>98</v>
       </c>
@@ -5798,7 +5873,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="13.2">
+    <row r="121" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>100</v>
       </c>
@@ -5806,7 +5881,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="13.2">
+    <row r="122" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>102</v>
       </c>
@@ -5814,7 +5889,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="13.2">
+    <row r="123" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>104</v>
       </c>
@@ -5822,7 +5897,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="13.2">
+    <row r="124" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>118</v>
       </c>
@@ -5830,7 +5905,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="13.2">
+    <row r="125" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>139</v>
       </c>
@@ -5838,7 +5913,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="13.2">
+    <row r="126" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>141</v>
       </c>
@@ -5846,7 +5921,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="13.2">
+    <row r="127" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>143</v>
       </c>
@@ -5875,23 +5950,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5899,7 +5974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -5907,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5915,23 +5990,23 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -5948,7 +6023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -5960,7 +6035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -5970,7 +6045,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -5980,7 +6055,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -5990,7 +6065,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="66">
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>210</v>
       </c>
@@ -6004,7 +6079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="66">
+    <row r="14" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -6018,7 +6093,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39.6">
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -6030,7 +6105,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39.6">
+    <row r="16" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
@@ -6040,7 +6115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -6050,7 +6125,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="39.6">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
@@ -6062,7 +6137,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.6">
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -6074,7 +6149,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.4">
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>116</v>
       </c>
@@ -6086,7 +6161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>124</v>
       </c>
@@ -6100,7 +6175,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="39.6">
+    <row r="22" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>137</v>
       </c>
@@ -6114,7 +6189,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="79.2">
+    <row r="23" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
@@ -6128,7 +6203,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="26.4">
+    <row r="24" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>118</v>
       </c>
@@ -6142,7 +6217,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>133</v>
       </c>
@@ -6150,12 +6225,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2">
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
@@ -6163,7 +6238,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2">
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>118</v>
       </c>
@@ -6171,7 +6246,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2">
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>133</v>
       </c>
@@ -6197,23 +6272,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.44140625" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6221,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6229,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6237,23 +6312,23 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="B6" s="58"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -6270,7 +6345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -6282,7 +6357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -6292,7 +6367,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -6302,7 +6377,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>36</v>
       </c>
@@ -6312,7 +6387,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:5" ht="66">
+    <row r="13" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>210</v>
       </c>
@@ -6326,7 +6401,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="66">
+    <row r="14" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
@@ -6340,7 +6415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39.6">
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>65</v>
       </c>
@@ -6352,7 +6427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39.6">
+    <row r="16" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>68</v>
       </c>
@@ -6362,7 +6437,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -6372,7 +6447,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" ht="39.6">
+    <row r="18" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>87</v>
       </c>
@@ -6384,7 +6459,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="39.6">
+    <row r="19" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
@@ -6396,7 +6471,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="26.4">
+    <row r="20" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>116</v>
       </c>
@@ -6408,7 +6483,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>124</v>
       </c>
@@ -6422,7 +6497,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>145</v>
       </c>
@@ -6432,7 +6507,7 @@
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" ht="39.6">
+    <row r="23" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>137</v>
       </c>
@@ -6446,7 +6521,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="79.2">
+    <row r="24" spans="1:4" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>114</v>
       </c>
@@ -6460,12 +6535,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2">
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
@@ -6491,19 +6566,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6511,7 +6586,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6519,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6527,25 +6602,25 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -6562,43 +6637,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.2">
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>147</v>
       </c>
       <c r="B16" s="15"/>
     </row>
-    <row r="17" spans="1:2" ht="13.2">
+    <row r="17" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
@@ -6624,19 +6699,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6644,7 +6719,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6652,7 +6727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6660,25 +6735,25 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -6695,12 +6770,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -6711,7 +6786,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>225</v>
       </c>
@@ -6722,7 +6797,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -6733,12 +6808,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13.2">
+    <row r="13" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13.2">
+    <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -6749,7 +6824,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.2">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>92</v>
       </c>
@@ -6760,12 +6835,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.2">
+    <row r="18" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>6</v>
       </c>
@@ -6773,7 +6848,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="13.2">
+    <row r="19" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>228</v>
       </c>
@@ -6781,7 +6856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="13.2">
+    <row r="20" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>90</v>
       </c>
@@ -6789,7 +6864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="13.2">
+    <row r="21" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>92</v>
       </c>
@@ -6815,19 +6890,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="13.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="13.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -6835,7 +6910,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2">
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6843,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.2">
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -6851,25 +6926,25 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.2">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.2">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="13.2">
+    <row r="8" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -6886,12 +6961,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.2">
+    <row r="9" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.2">
+    <row r="10" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -6902,7 +6977,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.2">
+    <row r="11" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>225</v>
       </c>
@@ -6913,7 +6988,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13.2">
+    <row r="12" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -6924,12 +6999,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.2">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
